--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="6384"/>
+    <workbookView xWindow="380" yWindow="80" windowWidth="16260" windowHeight="6380"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t xml:space="preserve">Expand possible areas for trouble-shooting help: non posdef, no sd.report variables, bounds issues </t>
+  </si>
+  <si>
+    <t>What is option -mcec? What is empirical covariance?</t>
+  </si>
+  <si>
+    <t>What is the .bgs file used for? Read in if mcmc2_flag==TRUE</t>
+  </si>
+  <si>
+    <t>Deduce which options are available for the hybrid method</t>
   </si>
 </sst>
 </file>
@@ -496,22 +505,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G21"/>
+  <dimension ref="B3:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="53.88671875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="74.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="53.90625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="74.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,12 +537,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -547,7 +556,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -555,7 +564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -566,7 +575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -577,7 +586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -588,7 +597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -599,7 +608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
@@ -607,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
@@ -615,7 +624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
@@ -626,7 +635,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -637,7 +646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
@@ -664,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -675,7 +684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -686,14 +695,29 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="28.75" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -709,10 +733,10 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="66.44140625" customWidth="1"/>
-    <col min="4" max="4" width="68.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="4" max="4" width="68.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="80" windowWidth="16260" windowHeight="6380"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="6384"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -141,13 +141,31 @@
   </si>
   <si>
     <t>Deduce which options are available for the hybrid method</t>
+  </si>
+  <si>
+    <t>Remove need for an sdreport variable for MCMC</t>
+  </si>
+  <si>
+    <t>http://www.admb-project.org/documentation/api/xxmcmc_8cpp_source.html#l00147</t>
+  </si>
+  <si>
+    <t>Questions for Dave:</t>
+  </si>
+  <si>
+    <t>Why need sdreport variable for MCMC?</t>
+  </si>
+  <si>
+    <t>What is the difference between bounding functions?</t>
+  </si>
+  <si>
+    <t>Use a random seed if none is provided by user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +177,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,10 +207,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -204,8 +231,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,20 +536,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.90625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="74.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="4"/>
+    <col min="2" max="2" width="53.88671875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="74.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,12 +566,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -556,7 +585,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -564,7 +593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -575,7 +604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -586,7 +615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -597,7 +626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -608,7 +637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
@@ -616,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
@@ -624,7 +653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
@@ -635,7 +664,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -646,7 +675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -654,7 +683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -665,7 +694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
@@ -673,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -684,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -695,27 +724,27 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
@@ -727,16 +756,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D8"/>
+  <dimension ref="C2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
-    <col min="4" max="4" width="68.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.44140625" customWidth="1"/>
+    <col min="4" max="4" width="68.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
@@ -773,7 +802,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" location="l00147"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -110,18 +110,12 @@
     <t xml:space="preserve">Writeup tuning guidance </t>
   </si>
   <si>
-    <t>1/2 done</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
     <t xml:space="preserve">Develop difficult posterior example model  </t>
   </si>
   <si>
-    <t>75% done</t>
-  </si>
-  <si>
     <t>Clean up snakes and its R plot code for submission into r2admb</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>What is the .bgs file used for? Read in if mcmc2_flag==TRUE</t>
   </si>
   <si>
-    <t>Deduce which options are available for the hybrid method</t>
-  </si>
-  <si>
     <t>Remove need for an sdreport variable for MCMC</t>
   </si>
   <si>
@@ -159,6 +150,27 @@
   </si>
   <si>
     <t>Use a random seed if none is provided by user</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>Used logistic</t>
+  </si>
+  <si>
+    <t>Also added to run function</t>
+  </si>
+  <si>
+    <t>Abandoned</t>
+  </si>
+  <si>
+    <t>commented out; presumably similar to supplying user covariance from partial chain</t>
+  </si>
+  <si>
+    <t>See next sheet</t>
   </si>
 </sst>
 </file>
@@ -211,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -232,6 +244,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,7 +552,7 @@
   <dimension ref="B3:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +594,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6">
         <v>41829</v>
@@ -592,6 +607,9 @@
       <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -601,7 +619,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -611,8 +632,8 @@
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
+      <c r="D8" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -631,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>29</v>
@@ -639,23 +660,29 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>27</v>
@@ -672,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -682,6 +709,9 @@
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -690,16 +720,22 @@
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -709,6 +745,9 @@
       <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
@@ -728,27 +767,38 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="14.55" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -759,7 +809,7 @@
   <dimension ref="C2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,30 +854,30 @@
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Task</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>See next sheet</t>
+  </si>
+  <si>
+    <t>Add section about seeds/reproducibility</t>
+  </si>
+  <si>
+    <t>Mention capabilities of R2admb</t>
+  </si>
+  <si>
+    <t>define what mcmult argument does</t>
   </si>
 </sst>
 </file>
@@ -549,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G24"/>
+  <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,8 +641,8 @@
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8">
-        <v>0.5</v>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -798,7 +807,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="14.55" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="6384"/>
+    <workbookView xWindow="380" yWindow="80" windowWidth="16260" windowHeight="6380"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Task</t>
   </si>
@@ -122,18 +122,12 @@
     <t>Migrate the guide to Github (after Spring quarter)</t>
   </si>
   <si>
-    <t>document -mcr to restart a chain from hst file</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expand possible areas for trouble-shooting help: non posdef, no sd.report variables, bounds issues </t>
   </si>
   <si>
     <t>What is option -mcec? What is empirical covariance?</t>
   </si>
   <si>
-    <t>What is the .bgs file used for? Read in if mcmc2_flag==TRUE</t>
-  </si>
-  <si>
     <t>Remove need for an sdreport variable for MCMC</t>
   </si>
   <si>
@@ -173,13 +167,25 @@
     <t>See next sheet</t>
   </si>
   <si>
-    <t>Add section about seeds/reproducibility</t>
-  </si>
-  <si>
     <t>Mention capabilities of R2admb</t>
   </si>
   <si>
     <t>define what mcmult argument does</t>
+  </si>
+  <si>
+    <t>On pause</t>
+  </si>
+  <si>
+    <t>Ben liked the idea of merging it into his package. Delaying until further decisions are made.</t>
+  </si>
+  <si>
+    <t>document -mcr to restart a chain</t>
+  </si>
+  <si>
+    <t>Cancled</t>
+  </si>
+  <si>
+    <t>It's not too long, just leave it as one document</t>
   </si>
 </sst>
 </file>
@@ -558,22 +564,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G26"/>
+  <dimension ref="B3:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="53.88671875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="74.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="53.90625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="74.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,12 +596,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -603,13 +615,13 @@
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6">
         <v>41829</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -617,10 +629,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -628,13 +640,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -642,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -656,7 +668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -667,7 +679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
@@ -675,32 +687,38 @@
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="6">
         <v>41838</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -708,10 +726,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -719,10 +737,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -730,13 +748,13 @@
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
@@ -744,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -755,13 +773,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -772,7 +790,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -780,46 +798,42 @@
         <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="28.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -835,10 +849,10 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="66.44140625" customWidth="1"/>
-    <col min="4" max="4" width="68.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="4" max="4" width="68.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
@@ -877,30 +891,30 @@
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Task</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>It's not too long, just leave it as one document</t>
+  </si>
+  <si>
+    <t>Writeup the mcprobe algorithm to go with the plots</t>
   </si>
 </sst>
 </file>
@@ -564,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G24"/>
+  <dimension ref="B3:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,6 +837,11 @@
     <row r="24" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="80" windowWidth="16260" windowHeight="6380"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="6384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>Task</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>Writeup the mcprobe algorithm to go with the plots</t>
+  </si>
+  <si>
+    <t>Give more informative output during hybrid runs</t>
+  </si>
+  <si>
+    <t>http://admb-project.org/documentation/api/hybmcmc_8cpp_source.html#l00086</t>
+  </si>
+  <si>
+    <t>Not needed; remove this in future versions</t>
+  </si>
+  <si>
+    <t>Not really sure; perhaps suggest this be renamed to bounded_flag since it has nothing to do with the hybrid method.</t>
   </si>
 </sst>
 </file>
@@ -569,20 +581,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.90625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="74.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="4"/>
+    <col min="2" max="2" width="53.88671875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="74.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -610,7 +622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -624,7 +636,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -635,7 +647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -649,7 +661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -660,7 +672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -671,7 +683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -682,7 +694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
@@ -696,7 +708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
@@ -704,7 +716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
@@ -721,7 +733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -732,7 +744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -743,7 +755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -757,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
@@ -768,7 +780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -782,7 +794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -793,7 +805,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -807,7 +819,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
@@ -815,7 +827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
@@ -829,17 +841,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
@@ -853,14 +865,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
-    <col min="4" max="4" width="68.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.44140625" customWidth="1"/>
+    <col min="4" max="4" width="68.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
@@ -910,6 +922,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>39</v>
@@ -919,10 +939,16 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="6384" activeTab="1"/>
+    <workbookView xWindow="380" yWindow="80" windowWidth="16260" windowHeight="6380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>Task</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Not really sure; perhaps suggest this be renamed to bounded_flag since it has nothing to do with the hybrid method.</t>
+  </si>
+  <si>
+    <t>http://admb-project.org/documentation/api/xxmcmc_8cpp_source.html#l00627</t>
+  </si>
+  <si>
+    <t>More informative output for MCMC, especially the -objective fn value (llc)</t>
   </si>
 </sst>
 </file>
@@ -585,16 +591,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="53.88671875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="74.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="53.90625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="74.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -622,7 +628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -636,7 +642,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -647,7 +653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -661,7 +667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -672,7 +678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -683,7 +689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -694,7 +700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
@@ -708,7 +714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
@@ -716,7 +722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
@@ -733,7 +739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -744,7 +750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -755,7 +761,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -769,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
@@ -780,7 +786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -794,7 +800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -805,7 +811,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -819,7 +825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="28.75" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
@@ -827,7 +833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
@@ -841,17 +847,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
@@ -866,13 +872,13 @@
   <dimension ref="C2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="66.44140625" customWidth="1"/>
-    <col min="4" max="4" width="68.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="4" max="4" width="68.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
@@ -930,6 +936,14 @@
         <v>59</v>
       </c>
     </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>39</v>
@@ -954,6 +968,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" location="l00147"/>
+    <hyperlink ref="D12" r:id="rId2" location="l00627"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="80" windowWidth="16260" windowHeight="6380" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="6384"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Cancel this</t>
   </si>
   <si>
-    <t>zero</t>
-  </si>
-  <si>
     <t xml:space="preserve">Writeup tuning guidance </t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>started</t>
-  </si>
-  <si>
     <t>Used logistic</t>
   </si>
   <si>
@@ -164,15 +158,9 @@
     <t>commented out; presumably similar to supplying user covariance from partial chain</t>
   </si>
   <si>
-    <t>See next sheet</t>
-  </si>
-  <si>
     <t>Mention capabilities of R2admb</t>
   </si>
   <si>
-    <t>define what mcmult argument does</t>
-  </si>
-  <si>
     <t>On pause</t>
   </si>
   <si>
@@ -188,9 +176,6 @@
     <t>It's not too long, just leave it as one document</t>
   </si>
   <si>
-    <t>Writeup the mcprobe algorithm to go with the plots</t>
-  </si>
-  <si>
     <t>Give more informative output during hybrid runs</t>
   </si>
   <si>
@@ -207,6 +192,12 @@
   </si>
   <si>
     <t>More informative output for MCMC, especially the -objective fn value (llc)</t>
+  </si>
+  <si>
+    <t>See next sheet; will adapt this from feedback from the ADMB developers</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -587,20 +578,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.90625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="74.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="4"/>
+    <col min="2" max="2" width="53.88671875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="74.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,18 +608,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -636,13 +627,13 @@
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="6">
         <v>41829</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -650,10 +641,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -661,13 +652,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -675,71 +666,68 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" s="6">
         <v>41838</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -747,10 +735,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -758,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -769,24 +757,24 @@
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -794,13 +782,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -811,57 +799,51 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>44</v>
+      <c r="D20" s="8">
+        <v>0.5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="28.75" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="14.55" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="14.55" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -871,14 +853,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="66.453125" customWidth="1"/>
-    <col min="4" max="4" width="68.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.44140625" customWidth="1"/>
+    <col min="4" max="4" width="68.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
@@ -917,52 +899,52 @@
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>Task</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>I totally agree with these, maybe add a section to the hst file called MCMC stats. I also think adding the ability to write the unscaled hist values, or maybe even each saved value, to a binary file (similar to the psv file) would be really helpful so that users can read in their saved param values from one file and their saved sdreport values from another. Of course the user can do it with an IO object, but I bet writing it to a binary file is hella faster - Melissa</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -278,6 +281,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -803,6 +809,9 @@
       <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" s="6">
         <v>41838</v>
       </c>
@@ -863,106 +872,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D16"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="66.5" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="3" max="3" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4">
-      <c r="C2" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
-      <c r="C3" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="2:4" ht="84">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" t="s">
+      <c r="D8" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
-      <c r="C10" t="s">
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
-      <c r="C14" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
       <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" location="l00147"/>
-    <hyperlink ref="D12" r:id="rId2" location="l00627"/>
+    <hyperlink ref="C9" r:id="rId1" location="l00147"/>
+    <hyperlink ref="C12" r:id="rId2" location="l00627"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13980" activeTab="1"/>
+    <workbookView xWindow="564" yWindow="564" windowWidth="25044" windowHeight="13980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Task</t>
   </si>
@@ -206,6 +206,21 @@
   </si>
   <si>
     <t>I totally agree with these, maybe add a section to the hst file called MCMC stats. I also think adding the ability to write the unscaled hist values, or maybe even each saved value, to a binary file (similar to the psv file) would be really helpful so that users can read in their saved param values from one file and their saved sdreport values from another. Of course the user can do it with an IO object, but I bet writing it to a binary file is hella faster - Melissa</t>
+  </si>
+  <si>
+    <t>Therefore, we propose a few
+improvements to the general usability of the \texttt{.hst} file: adding elements that
+report the date and time that the associated MCMC chain was started, the
+\texttt{-mcsave $nsave$} used, and the date and time the chain finished would be useful
+data to have associated with each chain.</t>
+  </si>
+  <si>
+    <t>We would like to recommend a user-friendly addition to the ADMB output files:
+something like an \texttt{.sdsv} file that would be similar to the \texttt{.psv}
+file, in that each saved \texttt{sdreport} value is written to a binary file. This
+file could then be read into R using the same code as for the \texttt{.psv} file
+and used to create histograms of the posterior distributions and calculate the
+median and credible intervals for each \texttt{sdreport} vaariable.</t>
   </si>
 </sst>
 </file>
@@ -593,16 +608,16 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.83203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="74.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="53.77734375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="74.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -630,7 +645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -644,7 +659,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -655,7 +670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -669,7 +684,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -680,7 +695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
@@ -691,7 +706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -702,7 +717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
@@ -716,7 +731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
@@ -724,7 +739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
@@ -741,7 +756,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -752,7 +767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -763,7 +778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -777,7 +792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -788,7 +803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -802,7 +817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -816,7 +831,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -830,7 +845,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="28">
+    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
@@ -838,7 +853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -852,7 +867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
@@ -872,30 +887,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.83203125" customWidth="1"/>
-    <col min="3" max="3" width="68.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.77734375" customWidth="1"/>
+    <col min="3" max="3" width="68.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -903,7 +919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -911,7 +927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="84">
+    <row r="8" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -921,21 +937,27 @@
       <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>53</v>
       </c>
@@ -943,7 +965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>58</v>
       </c>
@@ -951,12 +973,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -964,7 +986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>40</v>
       </c>
